--- a/docs/tabelas.xlsx
+++ b/docs/tabelas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Mudança de requisitos</t>
   </si>
@@ -70,6 +70,147 @@
   </si>
   <si>
     <t>Erros durante o uso do sistema</t>
+  </si>
+  <si>
+    <t>Proposta</t>
+  </si>
+  <si>
+    <t>Plano do Projeto</t>
+  </si>
+  <si>
+    <t>Descrição do projeto</t>
+  </si>
+  <si>
+    <t>Dicionário de Dados</t>
+  </si>
+  <si>
+    <t>Entrega de cópia do projeto</t>
+  </si>
+  <si>
+    <t>Banca de defesa do TCC</t>
+  </si>
+  <si>
+    <t>Modelo de Casos e Uso</t>
+  </si>
+  <si>
+    <t>Especificação dos Casos e Usos</t>
+  </si>
+  <si>
+    <t>Diagrama de Classes</t>
+  </si>
+  <si>
+    <t>Dicionário das Classes</t>
+  </si>
+  <si>
+    <t>Benefícios para o cliente</t>
+  </si>
+  <si>
+    <t>Estrutura organizacional do projeto</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Gerenciamento de Riscos</t>
+  </si>
+  <si>
+    <t>Processo de gerenciamento do projeto</t>
+  </si>
+  <si>
+    <t>Descrição da situação atual</t>
+  </si>
+  <si>
+    <t>Descrição dos problemas</t>
+  </si>
+  <si>
+    <t>Ambiente do usuário</t>
+  </si>
+  <si>
+    <t>Resumo dos usuários</t>
+  </si>
+  <si>
+    <t>Descrição do sistema proposto</t>
+  </si>
+  <si>
+    <t>Requisitos funcionais</t>
+  </si>
+  <si>
+    <t>Requisitos não funcionais</t>
+  </si>
+  <si>
+    <t>Arquitetura</t>
+  </si>
+  <si>
+    <t>Objetivos da arquitetura</t>
+  </si>
+  <si>
+    <t>Visão física</t>
+  </si>
+  <si>
+    <t>Descrição dos principais componentes</t>
+  </si>
+  <si>
+    <t>Software de aplicação</t>
+  </si>
+  <si>
+    <t>Visão lógica</t>
+  </si>
+  <si>
+    <t>SEM DATA</t>
+  </si>
+  <si>
+    <t>Objetivos do modelo de casos e uso</t>
+  </si>
+  <si>
+    <t>Casos de uso do sistema</t>
+  </si>
+  <si>
+    <t>Diagrama de casos e uso</t>
+  </si>
+  <si>
+    <t>Atores</t>
+  </si>
+  <si>
+    <t>Casos de uso</t>
+  </si>
+  <si>
+    <t>Objetivos da descrição dos casos de uso</t>
+  </si>
+  <si>
+    <t>Caso de uso XXX</t>
+  </si>
+  <si>
+    <t>Objetivo do projeto</t>
+  </si>
+  <si>
+    <t>Diagrama de Sequência do Fluxo Básico</t>
+  </si>
+  <si>
+    <t>Diagramas de Sequência dos Fluxos Alternativos</t>
+  </si>
+  <si>
+    <t>20 dias</t>
+  </si>
+  <si>
+    <t>15 dias</t>
+  </si>
+  <si>
+    <t>6 dias</t>
+  </si>
+  <si>
+    <t>16 dias</t>
+  </si>
+  <si>
+    <t>Modelo Entidade Relacionamento</t>
+  </si>
+  <si>
+    <t>Diagrama Entidade Relacionamento</t>
+  </si>
+  <si>
+    <t>2 dias</t>
+  </si>
+  <si>
+    <t>Projeto de persistência (Banco de Dados)</t>
   </si>
 </sst>
 </file>
@@ -92,12 +233,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,9 +265,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,12 +677,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="5">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43249</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/docs/tabelas.xlsx
+++ b/docs/tabelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Gerenciamento de riscos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Mudança de requisitos</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Conhecimento programador</t>
   </si>
   <si>
-    <t>Lentidão pagina</t>
-  </si>
-  <si>
-    <t>Invasao do sistema</t>
-  </si>
-  <si>
     <t>Codigos falhos</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>Falta de conhecimento para implementação das funcionalidades</t>
   </si>
   <si>
-    <t>Dados sigilosos disponibilizados externamente</t>
-  </si>
-  <si>
     <t>Erros durante o uso do sistema</t>
   </si>
   <si>
@@ -211,23 +202,49 @@
   </si>
   <si>
     <t>Projeto de persistência (Banco de Dados)</t>
+  </si>
+  <si>
+    <t>Risco</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>4 dias</t>
+  </si>
+  <si>
+    <t>3 dias</t>
+  </si>
+  <si>
+    <t>1 dia</t>
+  </si>
+  <si>
+    <t>9 dias</t>
+  </si>
+  <si>
+    <t>5 dias</t>
+  </si>
+  <si>
+    <t>8 dias</t>
+  </si>
+  <si>
+    <t>14 dias</t>
+  </si>
+  <si>
+    <t>10 dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,9 +282,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -283,6 +299,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,77 +632,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="11"/>
+    <col min="2" max="2" width="38.28515625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="30.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -679,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,391 +749,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4">
         <v>43168</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="E9" s="2">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="3">
-        <v>43188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="D13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="D15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="6">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="3">
-        <v>43210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
+      <c r="D26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
+      <c r="D27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="5">
-        <v>43210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="2">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
         <v>43231</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="2">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1">
         <v>43231</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="2">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1">
         <v>43245</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="2">
+        <v>57</v>
+      </c>
+      <c r="E40" s="1">
         <v>43245</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1">
         <v>43245</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="2">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1">
         <v>43249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A9:C9"/>
@@ -1086,19 +1215,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/tabelas.xlsx
+++ b/docs/tabelas.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\GitHub\osm\odonto-system-manager\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\odonto-system-manager\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gerenciamento de riscos" sheetId="1" r:id="rId1"/>
     <sheet name="Cronograma" sheetId="2" r:id="rId2"/>
+    <sheet name="Diagrama de classe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
   <si>
     <t>Mudança de requisitos</t>
   </si>
@@ -235,13 +237,580 @@
   </si>
   <si>
     <t>10 dias</t>
+  </si>
+  <si>
+    <t>Métodos</t>
+  </si>
+  <si>
+    <t>cadastrarUsuario</t>
+  </si>
+  <si>
+    <t>editarUsuario</t>
+  </si>
+  <si>
+    <t>adicionarPermissao</t>
+  </si>
+  <si>
+    <t>editarAnamnese</t>
+  </si>
+  <si>
+    <t>Edita cadastro de usuário</t>
+  </si>
+  <si>
+    <t>Cadastra novo usuário</t>
+  </si>
+  <si>
+    <t>Inativa o cadastro de usuário</t>
+  </si>
+  <si>
+    <t>Adiciona permissões a um usuário</t>
+  </si>
+  <si>
+    <t>Revogar permissões a um usuário</t>
+  </si>
+  <si>
+    <t>Edita anamnese de um usuário</t>
+  </si>
+  <si>
+    <t>inativarUsuario</t>
+  </si>
+  <si>
+    <t>revogarPermissao</t>
+  </si>
+  <si>
+    <t>editarDescricao</t>
+  </si>
+  <si>
+    <t>Edita descrição de uma permissão</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permissão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Classe destinada a manter as permissões do sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Classe destinada a manter usuários do sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Classe destinada a realizar operações de login no sistema</t>
+    </r>
+  </si>
+  <si>
+    <t>realizarLogin</t>
+  </si>
+  <si>
+    <t>verificarExistenciaUsuario</t>
+  </si>
+  <si>
+    <t>iniciarSessao</t>
+  </si>
+  <si>
+    <t>redirecionarUsuario</t>
+  </si>
+  <si>
+    <t>terminarSessao</t>
+  </si>
+  <si>
+    <t>validarLogin</t>
+  </si>
+  <si>
+    <t>Efetua login no sistema</t>
+  </si>
+  <si>
+    <t>Verifica existencia de usuário previamente cadastrado</t>
+  </si>
+  <si>
+    <t>Valida login no sistema</t>
+  </si>
+  <si>
+    <t>Inicia sessão no sistema</t>
+  </si>
+  <si>
+    <t>Redireciona usuário para pagina inicial</t>
+  </si>
+  <si>
+    <t>Termina sessão do sistema, realizando logout do usuario</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>isAtivo</t>
+  </si>
+  <si>
+    <t>inativar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resposta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>respostaTexto</t>
+  </si>
+  <si>
+    <t>respostaBool</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t>editarTipo</t>
+  </si>
+  <si>
+    <t>adicionarPergunta</t>
+  </si>
+  <si>
+    <t>adicionarResposta</t>
+  </si>
+  <si>
+    <t>adicionarRespostaOpcional</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Anamnese</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pergunta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>editarPergunta</t>
+  </si>
+  <si>
+    <t>novaPergunta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>adicionarEntrada</t>
+  </si>
+  <si>
+    <t>removerQuantidade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MaterialEstoque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AcaoServico_has_Material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>adicionarQuantidade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AcaoServico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>servico</t>
+  </si>
+  <si>
+    <t>adicionarMaterial</t>
+  </si>
+  <si>
+    <t>alterarPreco</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>novoServico</t>
+  </si>
+  <si>
+    <t>remover</t>
+  </si>
+  <si>
+    <t>editarNome</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atendimento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>adicionarServico</t>
+  </si>
+  <si>
+    <t>finalizar</t>
+  </si>
+  <si>
+    <t>removerServico</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agendamento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>iniciarAtendimento</t>
+  </si>
+  <si>
+    <t>gerarMulta</t>
+  </si>
+  <si>
+    <t>cancelarAgendamento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AgendaOdontologo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>adicionarAgendamento</t>
+  </si>
+  <si>
+    <t>removerAgendamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +818,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,8 +846,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,11 +861,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -300,12 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -317,6 +909,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,96 +1244,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="11"/>
-    <col min="2" max="2" width="38.28515625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="30.140625" style="11"/>
+    <col min="1" max="1" width="30.140625" style="9"/>
+    <col min="2" max="2" width="38.28515625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="30.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
+      <c r="C8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -758,11 +1368,11 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
@@ -772,10 +1382,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="5" t="s">
         <v>63</v>
       </c>
@@ -783,10 +1393,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="8" t="s">
         <v>63</v>
       </c>
@@ -794,10 +1404,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
@@ -805,10 +1415,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="5" t="s">
         <v>53</v>
       </c>
@@ -838,11 +1448,11 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
@@ -852,10 +1462,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="6" t="s">
         <v>53</v>
       </c>
@@ -896,10 +1506,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="6" t="s">
         <v>68</v>
       </c>
@@ -928,11 +1538,11 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="5" t="s">
         <v>53</v>
       </c>
@@ -942,10 +1552,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
@@ -953,10 +1563,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
@@ -975,10 +1585,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="8" t="s">
         <v>64</v>
       </c>
@@ -986,21 +1596,21 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="6" t="s">
         <v>54</v>
       </c>
@@ -1010,10 +1620,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="6" t="s">
         <v>64</v>
       </c>
@@ -1021,10 +1631,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="6">
         <v>15</v>
       </c>
@@ -1064,11 +1674,11 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="5" t="s">
         <v>54</v>
       </c>
@@ -1078,10 +1688,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="8" t="s">
         <v>57</v>
       </c>
@@ -1089,10 +1699,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
@@ -1100,10 +1710,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="5" t="s">
         <v>67</v>
       </c>
@@ -1218,4 +1828,584 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="18"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="14"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="14"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="14"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="14"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="14"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="18"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="14"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="18"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="14"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="18"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="14"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="18"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B94" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A30:B30"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/tabelas.xlsx
+++ b/docs/tabelas.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gerenciamento de riscos" sheetId="1" r:id="rId1"/>
     <sheet name="Cronograma" sheetId="2" r:id="rId2"/>
     <sheet name="Diagrama de classe" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="298">
   <si>
     <t>Mudança de requisitos</t>
   </si>
@@ -398,6 +398,18 @@
     <t>Termina sessão do sistema, realizando logout do usuario</t>
   </si>
   <si>
+    <t>Atributos</t>
+  </si>
+  <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>isAtivo</t>
+  </si>
+  <si>
+    <t>inativar</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Classe: </t>
     </r>
@@ -410,7 +422,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Entidade</t>
+      <t>Resposta</t>
     </r>
     <r>
       <rPr>
@@ -424,16 +436,25 @@
     </r>
   </si>
   <si>
-    <t>Atributos</t>
-  </si>
-  <si>
-    <t>ativo</t>
-  </si>
-  <si>
-    <t>isAtivo</t>
-  </si>
-  <si>
-    <t>inativar</t>
+    <t>respostaTexto</t>
+  </si>
+  <si>
+    <t>respostaBool</t>
+  </si>
+  <si>
+    <t>outro</t>
+  </si>
+  <si>
+    <t>editarTipo</t>
+  </si>
+  <si>
+    <t>adicionarPergunta</t>
+  </si>
+  <si>
+    <t>adicionarResposta</t>
+  </si>
+  <si>
+    <t>adicionarRespostaOpcional</t>
   </si>
   <si>
     <r>
@@ -448,7 +469,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Resposta</t>
+      <t>Pergunta</t>
     </r>
     <r>
       <rPr>
@@ -462,25 +483,10 @@
     </r>
   </si>
   <si>
-    <t>respostaTexto</t>
-  </si>
-  <si>
-    <t>respostaBool</t>
-  </si>
-  <si>
-    <t>outro</t>
-  </si>
-  <si>
-    <t>editarTipo</t>
-  </si>
-  <si>
-    <t>adicionarPergunta</t>
-  </si>
-  <si>
-    <t>adicionarResposta</t>
-  </si>
-  <si>
-    <t>adicionarRespostaOpcional</t>
+    <t>editarPergunta</t>
+  </si>
+  <si>
+    <t>novaPergunta</t>
   </si>
   <si>
     <r>
@@ -495,6 +501,641 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>adicionarEntrada</t>
+  </si>
+  <si>
+    <t>removerQuantidade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MaterialEstoque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AcaoServico_has_Material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>adicionarQuantidade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AcaoServico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>servico</t>
+  </si>
+  <si>
+    <t>adicionarMaterial</t>
+  </si>
+  <si>
+    <t>alterarPreco</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>novoServico</t>
+  </si>
+  <si>
+    <t>remover</t>
+  </si>
+  <si>
+    <t>editarNome</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atendimento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>adicionarServico</t>
+  </si>
+  <si>
+    <t>finalizar</t>
+  </si>
+  <si>
+    <t>removerServico</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agendamento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>iniciarAtendimento</t>
+  </si>
+  <si>
+    <t>gerarMulta</t>
+  </si>
+  <si>
+    <t>cancelarAgendamento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AgendaOdontologo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>adicionarAgendamento</t>
+  </si>
+  <si>
+    <t>removerAgendamento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configuracao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>valorMulta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comentario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>situacao</t>
+  </si>
+  <si>
+    <t>marcarComoAusente</t>
+  </si>
+  <si>
+    <t>marcarComoProtese</t>
+  </si>
+  <si>
+    <t>removerComentario</t>
+  </si>
+  <si>
+    <t>adicionarComentario</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Odontograma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>visualizarDente</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Face</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>exibirMarcacoes</t>
+  </si>
+  <si>
+    <t>adicionarMarcacao</t>
+  </si>
+  <si>
+    <t>removerMarcacao</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Marcacao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Debito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>pagarValor</t>
+  </si>
+  <si>
+    <t>pagarTotal</t>
+  </si>
+  <si>
+    <t>editarValor</t>
+  </si>
+  <si>
+    <t>editarMotivo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enumaration: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SituacaoAgendamento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>SOLICITADO</t>
+  </si>
+  <si>
+    <t>APROVADO</t>
+  </si>
+  <si>
+    <t>COMPARECIDO</t>
+  </si>
+  <si>
+    <t>NÃO COMPARECIDO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enumaration: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TipoResposta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - DESCREVER</t>
+    </r>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>TEXTO</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>ADMCLINICA</t>
+  </si>
+  <si>
+    <t>ODONTOLOGO</t>
+  </si>
+  <si>
+    <t>SECRETARIO</t>
+  </si>
+  <si>
+    <t>PACIENTE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EntidadeAtivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Classe com atributos e métodos comuns entre todas as entidades do sistema</t>
+    </r>
+  </si>
+  <si>
+    <t>Status do objeto</t>
+  </si>
+  <si>
+    <t>Verifica status do objeto</t>
+  </si>
+  <si>
+    <t>Altera atributo "ativo" para falso</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enumaration: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TipoUsuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Enum com atributos possíveis de permissão do usuário</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Classe: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Anamnese</t>
     </r>
     <r>
@@ -505,312 +1146,459 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pergunta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>editarPergunta</t>
-  </si>
-  <si>
-    <t>novaPergunta</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Material</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>adicionarEntrada</t>
-  </si>
-  <si>
-    <t>removerQuantidade</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MaterialEstoque</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>quantidade</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AcaoServico_has_Material</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>adicionarQuantidade</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AcaoServico</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>servico</t>
-  </si>
-  <si>
-    <t>adicionarMaterial</t>
-  </si>
-  <si>
-    <t>alterarPreco</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Servico</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>novoServico</t>
-  </si>
-  <si>
-    <t>remover</t>
-  </si>
-  <si>
-    <t>editarNome</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Atendimento</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>adicionarServico</t>
-  </si>
-  <si>
-    <t>finalizar</t>
-  </si>
-  <si>
-    <t>removerServico</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Agendamento</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>iniciarAtendimento</t>
-  </si>
-  <si>
-    <t>gerarMulta</t>
-  </si>
-  <si>
-    <t>cancelarAgendamento</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Classe: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AgendaOdontologo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - DESCREVER</t>
-    </r>
-  </si>
-  <si>
-    <t>adicionarAgendamento</t>
-  </si>
-  <si>
-    <t>removerAgendamento</t>
+      <t xml:space="preserve"> - Define métodos e atributos para gerenciamento de anamnese relacionada a usuário</t>
+    </r>
+  </si>
+  <si>
+    <t>Adiciona resposta a uma anamnese obrigando a seleção de uma pergunta</t>
+  </si>
+  <si>
+    <t>Adiciona resposta opcional a uma anamnese obrigando a seleção de uma pergunta</t>
+  </si>
+  <si>
+    <t>Edita a descrição de uma pergunta</t>
+  </si>
+  <si>
+    <t>Cria nova pergunta para anamnese</t>
+  </si>
+  <si>
+    <t>Recebe lote, quantidade e material para para ser registrada entrada no sistema</t>
+  </si>
+  <si>
+    <t>Nome:</t>
+  </si>
+  <si>
+    <t>UC001 Login</t>
+  </si>
+  <si>
+    <t>Descrição:</t>
+  </si>
+  <si>
+    <t>Caso de uso para descrever o login de um usuário</t>
+  </si>
+  <si>
+    <t>Ator:</t>
+  </si>
+  <si>
+    <t>Paciente, Administrador OSM, Secretário e Odontólogo</t>
+  </si>
+  <si>
+    <t>Pré-condição:</t>
+  </si>
+  <si>
+    <t>Usuário cadastrado</t>
+  </si>
+  <si>
+    <t>Início</t>
+  </si>
+  <si>
+    <t>Usuário acessa a tela de login do sistema</t>
+  </si>
+  <si>
+    <t>Condição de sucesso:</t>
+  </si>
+  <si>
+    <t>Usuário informa os dados de login corretamente e acessa a tela inicial do sistema</t>
+  </si>
+  <si>
+    <t>Fluxo principal:</t>
+  </si>
+  <si>
+    <t>Fluxo alternativo:</t>
+  </si>
+  <si>
+    <t>UC002 Cadastrar</t>
+  </si>
+  <si>
+    <t>Caso de uso para descrever o cadastramento de um usuário do tipo "Paciente"</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Usuário com cadastro anterior inexistente ou inativado</t>
+  </si>
+  <si>
+    <t>Usuário acessa a tela de cadastro do sistema</t>
+  </si>
+  <si>
+    <t>Usuário efetua cadastro com sucesso e acessa o restante do sistema</t>
+  </si>
+  <si>
+    <t>UC003 Manter usuário</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a inclusão e manutenção de um usuário</t>
+  </si>
+  <si>
+    <t>Administrador OSM e Administrador Clínica</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Administrador OSM ou Administrador Clínica logado</t>
+  </si>
+  <si>
+    <t>Administrador acessa tela de cadastro ou edição</t>
+  </si>
+  <si>
+    <t>Usuário conclui operação inclusão, alteração ou inativação com sucesso e retorna ao estado inicial</t>
+  </si>
+  <si>
+    <t>UC004 Manter clínica</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a manutenção da clínica</t>
+  </si>
+  <si>
+    <t>Administrador Clínica</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Administrador Clínica logado</t>
+  </si>
+  <si>
+    <t>Usuário acessa tela de manutenção da clínica</t>
+  </si>
+  <si>
+    <t>UC005 Manter serviços</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a inclusão e manutenção de um serviço</t>
+  </si>
+  <si>
+    <t>Administrador Clínica e Odontólogo</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Administrador Clínica ou Odontólogo logado</t>
+  </si>
+  <si>
+    <t>Ator acessa tela de cadastro ou edição de serviços</t>
+  </si>
+  <si>
+    <t>Ator conclui operação desejada com sucesso e retorna ao estado inicial</t>
+  </si>
+  <si>
+    <t>UC006 Manter material</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a inclusão e manutenção de um material</t>
+  </si>
+  <si>
+    <t>Administrador da Clinica, Secretário ou Odontólogo</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Administrador Clínica, Secretário ou Odontólogo logado</t>
+  </si>
+  <si>
+    <t>UC007 Gerir pagamentos</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a gestão de pagamentos</t>
+  </si>
+  <si>
+    <t>Administrado Clínica, Secretário ou Odontólogo.</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Administrado Clínica, Secretário ou Odontólogo. logado</t>
+  </si>
+  <si>
+    <t>Ator acessa tela de gestão de pagamentos</t>
+  </si>
+  <si>
+    <t>UC008 Manter agenda paciente</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a manutenção da agenda de paciente</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Paciente logado</t>
+  </si>
+  <si>
+    <t>Usuário acessa tela de manutenção de agenda de paciente</t>
+  </si>
+  <si>
+    <t>Usuário conclui operação desejada com sucesso e retorna ao estado inicial</t>
+  </si>
+  <si>
+    <t>UC009 Manter atendimento</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve as ações disponíveis e fluxos relacionados ao atendimento Odontólógico a um Paciente</t>
+  </si>
+  <si>
+    <t>Odontólogo</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Odontólogo logado.</t>
+  </si>
+  <si>
+    <t>Odontólogo acessa sua agenda e inicía um atendimento.</t>
+  </si>
+  <si>
+    <t>Odontólogo finaliza atendimento ao Paciente.</t>
+  </si>
+  <si>
+    <t>UC010 Consultar agenda do médico</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a visualização da agenda de médico</t>
+  </si>
+  <si>
+    <t>Secretário e Paciente</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Secretário ou Paciente logado</t>
+  </si>
+  <si>
+    <t>Usuário acessa tela de visualização de agenda de secretário</t>
+  </si>
+  <si>
+    <t>UC011 Gerar relatórios</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a geração de relatórios gerenciais</t>
+  </si>
+  <si>
+    <t>Administrador OSM</t>
+  </si>
+  <si>
+    <t>Usuário com nível de permissão Administrador OSM logado</t>
+  </si>
+  <si>
+    <t>Usuário acessa tela de geração de relatórios gerenciais</t>
+  </si>
+  <si>
+    <t>UC012 Gerar orçamento</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a geração de orçamentos</t>
+  </si>
+  <si>
+    <t>Odontólogo acessa tela de geração de orçamentos</t>
+  </si>
+  <si>
+    <t>O ator terá a possibilidade de gerar orçamentos para um determinado paciente, neste orçamento estarão contidos todos os valores dos serviços adicionados.</t>
+  </si>
+  <si>
+    <t>UC013 Manter odontograma</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a manutenção de odontogramas</t>
+  </si>
+  <si>
+    <t>Odontólogo acessa tela de manutenção de odontogramas</t>
+  </si>
+  <si>
+    <t>Caso o atendimento não tenha sido iniciado os dados serão somente de visualização, sem a possibilidade de edição.</t>
+  </si>
+  <si>
+    <t>UC014 Manter dente</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a manutenção de marcações nos dentes no odontograma</t>
+  </si>
+  <si>
+    <t>Odontólogo acessa tela de manutenção de dentes</t>
+  </si>
+  <si>
+    <t>UC015 Manter marcação</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a manutenção de marcações nos dentes</t>
+  </si>
+  <si>
+    <t>Odontólogo acessa tela de manutenção de marcações dentárias</t>
+  </si>
+  <si>
+    <t>Caso o atendimento não tenha sido iniciado as marcações serão somente de visualização, sem a possibilidade de edição.</t>
+  </si>
+  <si>
+    <t>UC016 Manter informações pessoais</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a manutenção de informações pessoais do usuário</t>
+  </si>
+  <si>
+    <t>Usuário</t>
+  </si>
+  <si>
+    <t>Usuário logado</t>
+  </si>
+  <si>
+    <t>Administrador acessa tela de cadastro ou edição de usuário</t>
+  </si>
+  <si>
+    <t>UC017 Manter agenda odontólogo</t>
+  </si>
+  <si>
+    <t>Este caso de uso descreve a manutenção da agenda de médico</t>
+  </si>
+  <si>
+    <t>Administrador Clínica, Secretário ou Odontólogo</t>
+  </si>
+  <si>
+    <t>Usuário acessa tela de manutenção de agenda de Odontólogo</t>
+  </si>
+  <si>
+    <t>1. Tela de cadastro é exibida para o usuário
+2. Usuário fornece dados obrigatórios
+3. Aplicação valida os dados e redireciona para a página inicial do sistema</t>
+  </si>
+  <si>
+    <t>- Usuário cancela a operação
+- Usuário já cadastrado anteriormente no sistema, ou seja, reativação de cadastro</t>
+  </si>
+  <si>
+    <t>1. Tela de login é exibida para o usuário
+2. Informações obrigatórias são preenchidas e validadas
+3. Login é efetuado e o usuário é redirecionado para a pagina inicial do sistema</t>
+  </si>
+  <si>
+    <t>- Usuário não informa os dados corretamente
+- Usuário não está cadastrado no sistema</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de cadastro e manutenção de usuários o Administrador tem as seguintes opções disponiveis:
+- Listar
+- Inclusão
+- Alteração
+- Inativação
+Na opção do tipo Listar o ator poderá visualizar todos os usuários cadastrados no sistema.
+Para a operação do tipo Inclusão o ator deverá escolher o tipo do cadastro do novo usuário (Administrador Clínica, Odontólogo ou Secretário) e fornecer todas as informações obrigatórias para confirmar a operação.
+Para a operação do tipo Alteração o ator deverá fornecer todas as informações obrigatórias para confirmar a operação.
+Para a operação do tipo Inativação o ator deverá confirmar a operação e as dependencias do usuário serão inativadas automaticamente, impedindo que o usuário inativado realize novas operações.</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de manutenção da clínica o sistema deverá fornecer as seguinte opções de configuração:
+1. Gerenciar informações da clínica:
+Nesta opção poderão ser configuradas opções gerais da clínica, como razão social, endereço, responsável legal, entre outras.
+2. Gerencias parâmetros:
+Nesta opção poderão ser configurados parâmetros especificos da clínica, por exemplo: penalidade em caso de atraso, penalidade em caso de inadimplência, horário de abertura e fechamento da clínica, entre outros</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de cadastro e manutenção de serviços o ator terá as seguintes opções disponiveis:
+- Listar
+- Inclusão
+- Alteração
+- Inativação
+Na opção do tipo Listar o ator poderá visualizar todos os serviços cadastrados no sistema.
+Para operação do tipo Inclusão o ator deverá escolher o tipo do serviço e fornecer todas as informações obrigatórias para confirmar a operação.
+Para operação do tipo Alteração o ator deverá fornecer todas as informações obrigatórias para confirmar a operação.
+Para a operação do tipo Inativação o ator deverá confirmar a operação e as dependencias do serviço serão inativadas automaticamente, impedindo que o serviço inativado seja incluído em novos atendimentos.
+Todos os serviços poderão ter ou não ter um ou mais materiais associados.</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de cadastro e manutenção de materiais o ator terá as seguintes opções disponiveis:
+- Listar
+- Inclusão
+- Alteração
+- Inativação
+- Alterar quantidade
+Na opção do tipo Listar o ator poderá visualizar todos os materiais cadastrados no sistema e suas respectivas quantidades disponíveis.
+Para operação do tipo Inclusão o ator deverá escolher o tipo do material e fornecer todas as informações obrigatórias para confirmar a operação.
+Para operação do tipo Alteração o ator deverá fornecer todas as informações obrigatórias para confirmar a operação.
+Para a operação do tipo Inativação o ator deverá confirmar a operação e as dependencias do material serão inativadas automaticamente, impedindo que o material inativado seja incluído em novos serviços e atendimentos.
+Para a operação do tipo Alterar a quantidade o usuário deverá informar o tipo de ação (Incluir ou Retirar), para ambas as situações deverão ser preenchidas todas a informações obrigatórias, como lote, validade, entre outros, e exclusivamente para a operação de retirada deverá ser preenchida justificativa de retirada.</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de gestão de pagamentos o ator terá as seguintes opções disponiveis:
+- Listar
+- Inclusão
+- Alteração
+- Baixa
+- Baixa total
+Na opção do tipo Listar o ator poderá visualizar todos os serviços pagamentos abertos e fechados do sistema.
+Para operação do tipo Inclusão o ator deverá fornecer todas as informações obrigatórias e justificativa para confirmar a operação.
+Para operação do tipo Alteração o ator deverá fornecer todas as informações obrigatórias e justificar alteração para confirmar a operação.
+Para operação do tipo Baixa parcial o ator deverá fornecer todas a informações obrigatórias, entre atendimento, tipo de pagamento, valor, entre outras, para baixar parcialmente uma pendência de um paciente.
+Para operação do tipo Baixa total o ator deverá fornecer todas a informações obrigatórias, entre atendimento, tipo de pagamento, entre outras, para baixar totalmente uma pendência de um paciente.</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de manutenção de agenda de paciente, o ator terá as seguintes opções:
+- Visualizar todos seus agendamentos
+- Efetuar a solicitação de reserva de horário com odontólogos disponíveis da clínica
+- Efetuar cancelamento de solicitações e/ou reserva de horário</t>
+  </si>
+  <si>
+    <t>Ao acessar sua agenda o Odontólogo terá a possibilidade de iniciar um atendimento agendado ou não anteriormente.
+Para iniciar atendimentos anteriormente agendados o Odontólogo deve selecionar em sua agenda um agendamento aprovado.
+Para iniciar um atendimento sem agendamento anterior o Odontólogo deve selecionar qual Paciente receberá o Atendimento.
+Ao iniciar um atendimento para um determinado Paciente que tenha um agendamento, o mesmo será situado como "Comparecido".
+Após o atendimento iniciado, será possível a inclusão de serviços a este para que ao fim seja emitido um relatório de serviços realizados e com valor final .
+Os atendimentos realizados estarão associados à um paciente e após finalizado este estará situado como "Não pago" até a baixa de pagamento do mesmo como descrito no "UC007 Gerir pagamentos".</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de manutenção de agenda de médico, o ator poderá visualizar a agenda completa de um médico, onde serão visualizados todos os horários agendados e horários livres.
+Para usuários do tipo Paciente serão visualizados somente os horários sem maiores detalhamentos.
+Para usuários do tipo Secretário serão visualizadas todas a informações relativas aos agendamentos, como paciente, comparecimento, entre outros.</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de geração de relatórios gerenciais o ator terá as seguintes opções:
+1. Relatório de acesso
+O ator poderá visualizar métricas relativas ao acesso, como acessos simultâneos, quantos pacientes estão logados, quantos secretários estão trabalhando, métricas de uso entre pacientes e atendimentos.
+2. Relatórios de dados
+O ator poderá visualizar relatórios relativos a quantidade de dados gerados, quais dados foram gerados, como ondotogramas preenchidos, atendimentos realizados.
+3. Relatórios de usuários
+O ator poderá visualizar relatórios relativos a quantidade de acesso de um usuário especifico, listar todos os usuários e suas permissões, dentre outros filtros.
+4. Relatórios de pagamentos
+O ator poderá visualizar pagamentos referente a atendimentos, pacientes inadimplentes, pacientes com penalidade aplicada, totalizadores de pagamentos.
+5. Relatórios de agendamentos
+O ator poderá visualizar métricas referente a agendamentos, comparecimento de paciente, número de agendamentos para determinado médico ou para clínica toda.</t>
+  </si>
+  <si>
+    <t>1. Usuário com nível de permissão Odontólogo logado.
+2. Atendimento iniciado.</t>
+  </si>
+  <si>
+    <t>O ator poderá manter o odontograma, as operações permitidas no odontograma serão:
+- Manter dente
+- Manter comentários
+- Criar novo odontograma
+1. Manter dente
+Funcionalidades descritas no "UC014 Manter dente"
+2. Manter comentários
+O ator poderá manter comentário relativos ao odontograma do paciente.
+3. Criar novo odontograma
+O ator poderá criar um novo odontograma para um paciente, o odontograma passado não será descartado, mas somente estará disponível para consultas.</t>
+  </si>
+  <si>
+    <t>1. Usuário com nível de permissão Odontólogo logado.
+2. Atendimento iniciado.
+3. Odontograma selecionado/iniciado.</t>
+  </si>
+  <si>
+    <t>O ator poderá manter dentes disponíveis no odontograma, as operações permitidas nos dentes serão:
+- Manter marcação
+Funcionalidades descritas no "UC015 Mater marcação"
+- Marcar como ausente/prótese
+- Manter comentários
+Todas as operações estarão relacionadas a serviços.</t>
+  </si>
+  <si>
+    <t>O ator poderá manter marcações dentárias ao acessar a tela de faces dos dentes, disponível no odontograma, nesta tela ele terá a possibilidade de incluir, excluir ou alterar uma marcação caso o atendimento esteja iniciado.
+Todas as operações estarão relacionadas a serviços, com a possibilidade de adicionar e remover comentários.</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de cadastro e manutenção de informações pessoais o ator tem as seguintes opções disponiveis:
+- Editar cadastro
+- Editar anamnese (Se usuário for um paciente)
+- Inativar cadastro
+Para a operação do tipo Editar cadastro o usuário poderá alterar informações basicas relativas ao cadastro, como nome, endereço, entre outros.
+Para a operação do tipo Editar anamnese o usuário poderá alterar informações referentes à sua saúde e integridade fisica, como alergias, cirurgias e outras informações importantes.
+Para a operação do tipo Inativar cadastro o usuário poderá desativar sua conta no sistema e suas dependencias serão automaticamente inativadas, não permitindo futuras alterações.</t>
+  </si>
+  <si>
+    <t>Ao acessar a tela de manutenção de agenda de Odontólogo, o ator terá as seguintes opções:
+1. Visualizar agenda completa
+2. Informar comparecimento ou não comparecimento de paciente, este segundo será passível de penalidade definida na configuração da clínica
+3. Aprovar ou reprovar solicitações de reserva de horários
+4. Manter reserva de horário (Alterar, modificar, cancelar).
+Quaisquer alterações com paciente envolvido serão notificadas ao mesmo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,8 +1614,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,8 +1659,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -876,11 +1695,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -927,6 +1785,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="A13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,13 +2741,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>60</v>
@@ -1861,9 +2755,11 @@
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1875,15 +2771,19 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1947,295 +2847,299 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="20"/>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B32" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="18"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="B40" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="B41" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="18"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="14"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="18"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="18"/>
+      <c r="A48" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="14"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="22"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="20"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="20"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B57" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="14"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="14"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="18"/>
+        <v>113</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B62" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="14"/>
+    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="18"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="A64" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="14"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="14"/>
+      <c r="A66" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="18"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>60</v>
@@ -2243,19 +3147,19 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B68" s="14"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B69" s="14"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B71" s="18"/>
     </row>
@@ -2269,143 +3173,1595 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="14"/>
-    </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="14"/>
+      <c r="A75" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="18"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="14"/>
+      <c r="A76" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B77" s="14"/>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="18"/>
+      <c r="A79" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="14"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="18"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B83" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="14"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="14"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="14"/>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="18"/>
+      <c r="A85" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="A86" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="14"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B87" s="14"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89" s="14"/>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="18"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="18"/>
+      <c r="A91" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="A92" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B93" s="14"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="14"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="18"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="14"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="14"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="14"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="18"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="14"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="14"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="18"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B110" s="22"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B111" s="20"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="20"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" s="20"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="18"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="14"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="14"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="18"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B94" s="14"/>
+      <c r="B123" s="14"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125" s="18"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="14"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="18"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134" s="14"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" s="14"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="14"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="18"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="14"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="18"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="14"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="14"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="18"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A64:B64"/>
+  <mergeCells count="39">
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A142:B142"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B164"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:B164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="313.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="171" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="342" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="384.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="313.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="399" x14ac:dyDescent="0.25">
+      <c r="A103" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="14"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="A113" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" s="14"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A123" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="114" x14ac:dyDescent="0.25">
+      <c r="A133" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A153" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" s="14"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/tabelas.xlsx
+++ b/docs/tabelas.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gerenciamento de riscos" sheetId="1" r:id="rId1"/>
     <sheet name="Cronograma" sheetId="2" r:id="rId2"/>
     <sheet name="Diagrama de classe" sheetId="3" r:id="rId3"/>
     <sheet name="Problemas" sheetId="5" r:id="rId4"/>
-    <sheet name="Caso de uso" sheetId="4" r:id="rId5"/>
+    <sheet name="DER" sheetId="6" r:id="rId5"/>
+    <sheet name="Caso de uso" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="546">
   <si>
     <t>Mudança de requisitos</t>
   </si>
@@ -1745,12 +1746,555 @@
   <si>
     <t>mais</t>
   </si>
+  <si>
+    <t>acao_servico</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>BIGINT(20)</t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>id_servico</t>
+  </si>
+  <si>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>DECIMAL(15,2)</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+  </si>
+  <si>
+    <t>id_atendimento</t>
+  </si>
+  <si>
+    <t>acao_servico_has_marcacao</t>
+  </si>
+  <si>
+    <t>id_acao_servico</t>
+  </si>
+  <si>
+    <t>id_marcacao</t>
+  </si>
+  <si>
+    <t>acao_servico_has_material</t>
+  </si>
+  <si>
+    <t>acao_servico_id</t>
+  </si>
+  <si>
+    <t>material_id</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,3)</t>
+  </si>
+  <si>
+    <t>agendamento</t>
+  </si>
+  <si>
+    <t>id_odontologo</t>
+  </si>
+  <si>
+    <t>id_paciente</t>
+  </si>
+  <si>
+    <t>data_hora</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TINYINT(4)</t>
+  </si>
+  <si>
+    <t>Poderá ser: 0 - SOLICITADO 1 - APROVADO 3 - COMPARECIDO 4 - NÃO COMPARECIDO</t>
+  </si>
+  <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>anamnese</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>atendimento</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>id_agendamento</t>
+  </si>
+  <si>
+    <t>valor_total</t>
+  </si>
+  <si>
+    <t>controle_estoque</t>
+  </si>
+  <si>
+    <t>id_material</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>qtd_atual</t>
+  </si>
+  <si>
+    <t>operacao</t>
+  </si>
+  <si>
+    <t>qtd_operacao</t>
+  </si>
+  <si>
+    <t>dente</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>dente_has_odontograma</t>
+  </si>
+  <si>
+    <t>id_dente</t>
+  </si>
+  <si>
+    <t>id_odontograma</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dente_id</t>
+  </si>
+  <si>
+    <t>marcacao</t>
+  </si>
+  <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>marcacao_has_face</t>
+  </si>
+  <si>
+    <t>marcacao_id</t>
+  </si>
+  <si>
+    <t>face_id</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>medida</t>
+  </si>
+  <si>
+    <t>multa</t>
+  </si>
+  <si>
+    <t>motivo</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>agendamento_id</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>odontograma</t>
+  </si>
+  <si>
+    <t>pergunta</t>
+  </si>
+  <si>
+    <t>tipo_resposta</t>
+  </si>
+  <si>
+    <t>pergunta_has_anamnese</t>
+  </si>
+  <si>
+    <t>pergunta_id</t>
+  </si>
+  <si>
+    <t>anamnese_id</t>
+  </si>
+  <si>
+    <t>resposta_boolean</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>resposta_texto</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Tipo será um enum, portanto não haverá tabela de tipos</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>data_nascimento</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>VARCHAR(14)</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>VARCHAR(35)</t>
+  </si>
+  <si>
+    <t>Serviço realizado no atendimento.</t>
+  </si>
+  <si>
+    <t>Preço cobrado pelo serviço naquele atendimento.</t>
+  </si>
+  <si>
+    <t>Data da realização do serviço.</t>
+  </si>
+  <si>
+    <t>O atendimento em que foi realizado o serviço.</t>
+  </si>
+  <si>
+    <t>ID da acao_servico que utilizará o material.</t>
+  </si>
+  <si>
+    <t>ID do material que será adicionado ao serviço.</t>
+  </si>
+  <si>
+    <t>Quantidade de material que será utilizada.</t>
+  </si>
+  <si>
+    <t>ID do odontólogo relacionado ao agendamento</t>
+  </si>
+  <si>
+    <t>ID do paciente relacionado ao agendamento</t>
+  </si>
+  <si>
+    <t>Data e hora do agendamento</t>
+  </si>
+  <si>
+    <t>Status do agendamento (Ativo e inativo)</t>
+  </si>
+  <si>
+    <t>ID do usuário relacionado à anamnese</t>
+  </si>
+  <si>
+    <t>Indica o estado do atendimento. 0 - SOLICITADO 1 - APROVADO 2 - COMPARECIDO 3 - NÃO COMPARECIDO</t>
+  </si>
+  <si>
+    <t>ID do agendamento que gerou o atendimento.</t>
+  </si>
+  <si>
+    <t>Valor total do atendimento. Calculo será realizado ao finalizar um atendimento</t>
+  </si>
+  <si>
+    <t>configuracao</t>
+  </si>
+  <si>
+    <t>razao_social</t>
+  </si>
+  <si>
+    <t>Razão social da clínica/consultório.</t>
+  </si>
+  <si>
+    <t>fantasia</t>
+  </si>
+  <si>
+    <t>Nome fantasia da Clínica/Consultório.</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>Endereço da Clínica/Consultório.</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>CNPJ da Clínica/Consultório.</t>
+  </si>
+  <si>
+    <t>hora_abre</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+  </si>
+  <si>
+    <t>Hora que abre a Clínica/Consultório. Será utilizada para permitir os agendamentos.</t>
+  </si>
+  <si>
+    <t>hora_fecha</t>
+  </si>
+  <si>
+    <t>Hora que fecha a Clínica/Consultório. Será utilizado para permitir os agendamentos.</t>
+  </si>
+  <si>
+    <t>telefone_1</t>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+  </si>
+  <si>
+    <t>telefone_2</t>
+  </si>
+  <si>
+    <t>VARCHAR(120)</t>
+  </si>
+  <si>
+    <t>valor_multa</t>
+  </si>
+  <si>
+    <t>DECIMAL(10,2)</t>
+  </si>
+  <si>
+    <t>Valor da multa por não comparecimento.</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>ID do material operado.</t>
+  </si>
+  <si>
+    <t>Data da operação realizada.</t>
+  </si>
+  <si>
+    <t>Quantidade atual do material no momento da operação.</t>
+  </si>
+  <si>
+    <t>Tipo de operação. Pode ser: 0 - REMOÇÃO. 1 - INSERÇÃO.</t>
+  </si>
+  <si>
+    <t>Quantidade operada.</t>
+  </si>
+  <si>
+    <t>lote</t>
+  </si>
+  <si>
+    <t>Lote operado.</t>
+  </si>
+  <si>
+    <t>validade</t>
+  </si>
+  <si>
+    <t>Validade do lote.</t>
+  </si>
+  <si>
+    <t>Imagem que representará o dente.</t>
+  </si>
+  <si>
+    <t>Estado do dente perante o odontograma. Será um enum, portanto não haverá tabela de estados. Pode ser: 0 - AUSENTE. 1 - NORMAL. 2 - IMPLANTE. 3 - IMPLANTE PARCIAL.</t>
+  </si>
+  <si>
+    <t>Dente ao qual a face pertence.</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>Número de identificação da face no dente.</t>
+  </si>
+  <si>
+    <t>Imagem que representará a face.</t>
+  </si>
+  <si>
+    <t>Posição horizontal da marcação na face.</t>
+  </si>
+  <si>
+    <t>Posição vertical da marcação na face.</t>
+  </si>
+  <si>
+    <t>Cor da marcação.</t>
+  </si>
+  <si>
+    <t>ID do Odontograma qual foi realizada a marcação.</t>
+  </si>
+  <si>
+    <t>Medida será um enum que indicará qual a unidade de medida do material. Ex: Unidade, Mg, Kg. Portanto não haverá tabela de medidas</t>
+  </si>
+  <si>
+    <t>O motivo da multa.</t>
+  </si>
+  <si>
+    <t>Agendamento qual realizou a geração da multa.</t>
+  </si>
+  <si>
+    <t>Valor da multa. Poderá variar de acordo com o motivo.</t>
+  </si>
+  <si>
+    <t>Descrição da pergunta</t>
+  </si>
+  <si>
+    <t>Tipo de resposta da pergunta (Enumeration)</t>
+  </si>
+  <si>
+    <t>Indicador se a resposta terá ou não um complemento.</t>
+  </si>
+  <si>
+    <t>Pergunta associada à anamnese</t>
+  </si>
+  <si>
+    <t>Anamnese à qual a pergunta está associada.</t>
+  </si>
+  <si>
+    <t>Resposta booleana para pergunta referenciada</t>
+  </si>
+  <si>
+    <t>Resposta em texto para pergunta referenciada</t>
+  </si>
+  <si>
+    <t>resposta_complemento</t>
+  </si>
+  <si>
+    <t>Complemento da resposta dada a pergunta.</t>
+  </si>
+  <si>
+    <t>permissao</t>
+  </si>
+  <si>
+    <t>Título da permissão.</t>
+  </si>
+  <si>
+    <t>Nome do serviço.</t>
+  </si>
+  <si>
+    <t>Descrição detalhada do serviço.</t>
+  </si>
+  <si>
+    <t>Estado atual do serviço. Pode ser: 0 - INATIVO. 1 - ATIVO.</t>
+  </si>
+  <si>
+    <t>Nome do usuário</t>
+  </si>
+  <si>
+    <t>E-mail do usuário</t>
+  </si>
+  <si>
+    <t>Data de nascimento do usuário</t>
+  </si>
+  <si>
+    <t>CPF do usuário</t>
+  </si>
+  <si>
+    <t>Tipo de usuário será um enum, portanto não haverá tabela de medidas. Os tipos de usuário serão: 0 - ADMINISTRADOR (Administrador do sistema). 1 - ADMCLINICA (Administrador da clínica). 2 - ODONTOLOGO. 3 - SECRETARIO. 4 - PACIENTE.</t>
+  </si>
+  <si>
+    <t>Status do usuário. Poderá ser: 0 - INATIVO. 1 - ATIVO.</t>
+  </si>
+  <si>
+    <t>Senha do usuário</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>Número de telefone do usuário.</t>
+  </si>
+  <si>
+    <t>telefone_whats</t>
+  </si>
+  <si>
+    <t>Número de telefone do usuário com WhatsApp.</t>
+  </si>
+  <si>
+    <t>usuario_has_permissao</t>
+  </si>
+  <si>
+    <t>usuario_id</t>
+  </si>
+  <si>
+    <t>permissao_id</t>
+  </si>
+  <si>
+    <t>Coluna</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1796,8 +2340,52 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A6A6A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6A6A6A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,8 +2422,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1882,11 +2482,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1952,26 +2625,72 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2410,11 +3129,11 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
@@ -2424,10 +3143,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="5" t="s">
         <v>63</v>
       </c>
@@ -2435,10 +3154,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="8" t="s">
         <v>63</v>
       </c>
@@ -2446,10 +3165,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
@@ -2457,10 +3176,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5" t="s">
         <v>53</v>
       </c>
@@ -2580,11 +3299,11 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="5" t="s">
         <v>53</v>
       </c>
@@ -2594,10 +3313,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
@@ -2605,10 +3324,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
@@ -2627,10 +3346,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="8" t="s">
         <v>64</v>
       </c>
@@ -2638,10 +3357,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="8" t="s">
         <v>57</v>
       </c>
@@ -2716,11 +3435,11 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="5" t="s">
         <v>54</v>
       </c>
@@ -2730,10 +3449,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="8" t="s">
         <v>57</v>
       </c>
@@ -2741,10 +3460,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="25"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
@@ -2752,10 +3471,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="5" t="s">
         <v>67</v>
       </c>
@@ -2847,6 +3566,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B31:C31"/>
@@ -2854,19 +3586,6 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2888,10 +3607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -2954,10 +3673,10 @@
       <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
@@ -2966,44 +3685,44 @@
       <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="30"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="28"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
@@ -3026,10 +3745,10 @@
       <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -3092,10 +3811,10 @@
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="28"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -3126,10 +3845,10 @@
       <c r="B35" s="22"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
@@ -3192,10 +3911,10 @@
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="B45" s="27"/>
+      <c r="B45" s="28"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
@@ -3204,26 +3923,26 @@
       <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="28"/>
+      <c r="B47" s="30"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="28"/>
+      <c r="B48" s="30"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="B50" s="27"/>
+      <c r="B50" s="28"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
@@ -3262,10 +3981,10 @@
       <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="B56" s="27"/>
+      <c r="B56" s="28"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
@@ -3312,10 +4031,10 @@
       <c r="B62" s="22"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="B63" s="27"/>
+      <c r="B63" s="28"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
@@ -3346,10 +4065,10 @@
       <c r="B67" s="22"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="27"/>
+      <c r="B68" s="28"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
@@ -3372,10 +4091,10 @@
       <c r="B71" s="22"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="B72" s="27"/>
+      <c r="B72" s="28"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
@@ -3430,10 +4149,10 @@
       <c r="B79" s="22"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="B80" s="27"/>
+      <c r="B80" s="28"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
@@ -3488,10 +4207,10 @@
       <c r="B87" s="22"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="27"/>
+      <c r="B88" s="28"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
@@ -3530,10 +4249,10 @@
       <c r="B93" s="22"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="B94" s="27"/>
+      <c r="B94" s="28"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
@@ -3580,10 +4299,10 @@
       <c r="B100" s="22"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="B101" s="27"/>
+      <c r="B101" s="28"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
@@ -3606,10 +4325,10 @@
       <c r="B104" s="22"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="B105" s="27"/>
+      <c r="B105" s="28"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
@@ -3656,10 +4375,10 @@
       <c r="B111" s="22"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="27" t="s">
+      <c r="A112" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="B112" s="27"/>
+      <c r="B112" s="28"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="29" t="s">
@@ -3668,38 +4387,38 @@
       <c r="B113" s="29"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B114" s="28"/>
+      <c r="B114" s="30"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="28"/>
+      <c r="B115" s="30"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="28"/>
+      <c r="B116" s="30"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="28"/>
+      <c r="B117" s="30"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="B119" s="27"/>
+      <c r="B119" s="28"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
@@ -3730,10 +4449,10 @@
       <c r="B123" s="22"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="B124" s="27"/>
+      <c r="B124" s="28"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="24" t="s">
@@ -3772,10 +4491,10 @@
       <c r="B129" s="22"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="27" t="s">
+      <c r="A130" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B130" s="27"/>
+      <c r="B130" s="28"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="24" t="s">
@@ -3798,10 +4517,10 @@
       <c r="B133" s="22"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="B134" s="27"/>
+      <c r="B134" s="28"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
@@ -3864,10 +4583,10 @@
       <c r="B142" s="22"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="B143" s="27"/>
+      <c r="B143" s="28"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="24" t="s">
@@ -3890,10 +4609,10 @@
       <c r="B146" s="22"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="B147" s="27"/>
+      <c r="B147" s="28"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
@@ -3932,10 +4651,10 @@
       <c r="B152" s="22"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="B153" s="27"/>
+      <c r="B153" s="28"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="s">
@@ -3971,25 +4690,10 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A147:B147"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A153:B153"/>
@@ -4006,10 +4710,25 @@
     <mergeCell ref="A119:B119"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4020,8 +4739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4033,16 +4752,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="25" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4108,6 +4827,3055 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H37" s="33"/>
+    </row>
+    <row r="38" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="33" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="33" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="33" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="33" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="33"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="40"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C63" s="34"/>
+      <c r="D63" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="33" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="33" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="38"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H73" s="33"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="33"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="33" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="38"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="40"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="33"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="33"/>
+    </row>
+    <row r="81" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="33" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="40"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H85" s="33"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="33"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C87" s="34"/>
+      <c r="D87" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="33" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="40"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H93" s="33"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="33" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="33" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="33" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C97" s="34"/>
+      <c r="D97" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="33" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="38"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="40"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H100" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H101" s="33"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="33"/>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="38"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="40"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H106" s="33"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="33"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="33"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="33"/>
+    </row>
+    <row r="110" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="33" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="38"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="40"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H114" s="33"/>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="33" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C116" s="34"/>
+      <c r="D116" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E116" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="33" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="B118" s="42"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="38"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="40"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G120" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H120" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H121" s="33"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C122" s="34"/>
+      <c r="D122" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E122" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="33"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="33"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="38"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="40"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H127" s="33"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="33" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="33" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="42"/>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="38"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="40"/>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E133" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F133" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G133" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H133" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E134" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E135" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="33" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="33" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C137" s="34"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C138" s="34"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="33" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="B139" s="42"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="42"/>
+      <c r="G139" s="42"/>
+      <c r="H139" s="42"/>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="38"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="40"/>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C141" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E141" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F141" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G141" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H141" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C142" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D142" s="34"/>
+      <c r="E142" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F142" s="34"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="33"/>
+    </row>
+    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" s="34"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F143" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="G143" s="34"/>
+      <c r="H143" s="33" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B144" s="42"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="42"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="42"/>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="38"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="40"/>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F146" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G146" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H146" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D147" s="34"/>
+      <c r="E147" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F147" s="34"/>
+      <c r="G147" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H147" s="33"/>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="33" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F149" s="34"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="33" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F150" s="34"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F151" s="34"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="B152" s="42"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="42"/>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="38"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="39"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="40"/>
+    </row>
+    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E154" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F154" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G154" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H154" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C155" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F155" s="34"/>
+      <c r="G155" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="H155" s="33"/>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B156" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F156" s="34"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="B157" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C157" s="34"/>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F157" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="G157" s="34"/>
+      <c r="H157" s="33" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B158" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="C158" s="34"/>
+      <c r="D158" s="34"/>
+      <c r="E158" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F158" s="34"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F159" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="G159" s="34"/>
+      <c r="H159" s="33" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="B160" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C160" s="34"/>
+      <c r="D160" s="34"/>
+      <c r="E160" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F160" s="34"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="33" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B161" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F161" s="34"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="33" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F162" s="34"/>
+      <c r="G162" s="34"/>
+      <c r="H162" s="33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
+      <c r="E163" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F163" s="34"/>
+      <c r="G163" s="34"/>
+      <c r="H163" s="33" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="B164" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" s="34"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="34"/>
+      <c r="F164" s="34"/>
+      <c r="G164" s="34"/>
+      <c r="H164" s="33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="41" t="s">
+        <v>541</v>
+      </c>
+      <c r="B165" s="42"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="42"/>
+    </row>
+    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="38"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="40"/>
+    </row>
+    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D167" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E167" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F167" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="G167" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="H167" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="D168" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E168" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F168" s="34"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="33"/>
+    </row>
+    <row r="169" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="44" t="s">
+        <v>543</v>
+      </c>
+      <c r="B169" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C169" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D169" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="E169" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="F169" s="46"/>
+      <c r="G169" s="46"/>
+      <c r="H169" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A144:H144"/>
+    <mergeCell ref="A145:H145"/>
+    <mergeCell ref="A152:H152"/>
+    <mergeCell ref="A153:H153"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A119:H119"/>
+    <mergeCell ref="A124:H124"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A131:H131"/>
+    <mergeCell ref="A132:H132"/>
+    <mergeCell ref="A139:H139"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A103:H103"/>
+    <mergeCell ref="A104:H104"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D5" location="id_servico" display="id_servico"/>
+    <hyperlink ref="D8" location="id_atendimento" display="id_atendimento"/>
+    <hyperlink ref="D12" location="id_acao_servico" display="id_acao_servico"/>
+    <hyperlink ref="D13" location="id_marcacao" display="id_marcacao"/>
+    <hyperlink ref="D17" location="acao_servico" display="acao_servico"/>
+    <hyperlink ref="D18" location="material" display="material"/>
+    <hyperlink ref="D24" location="id_odontologo" display="id_odontologo"/>
+    <hyperlink ref="D25" location="id_paciente" display="id_paciente"/>
+    <hyperlink ref="D33" location="id_usuario" display="id_usuario"/>
+    <hyperlink ref="D39" location="id_agendamento" display="id_agendamento"/>
+    <hyperlink ref="D63" location="id_material" display="id_material"/>
+    <hyperlink ref="D79" location="id_dente" display="id_dente"/>
+    <hyperlink ref="D80" location="id_odontograma" display="id_odontograma"/>
+    <hyperlink ref="D87" location="dente" display="dente"/>
+    <hyperlink ref="D97" location="id_odontograma" display="id_odontograma"/>
+    <hyperlink ref="D101" location="marcacao" display="marcacao"/>
+    <hyperlink ref="D102" location="face" display="face"/>
+    <hyperlink ref="D116" location="agendamento" display="agendamento"/>
+    <hyperlink ref="D122" location="id_paciente" display="id_paciente"/>
+    <hyperlink ref="D134" location="pergunta" display="pergunta"/>
+    <hyperlink ref="D135" location="anamnese" display="anamnese"/>
+    <hyperlink ref="D168" location="usuario" display="usuario"/>
+    <hyperlink ref="D169" location="permissao" display="permissao"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B164"/>
   <sheetViews>

--- a/docs/tabelas.xlsx
+++ b/docs/tabelas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gerenciamento de riscos" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="551">
   <si>
     <t>Mudança de requisitos</t>
   </si>
@@ -1747,9 +1747,6 @@
     <t>mais</t>
   </si>
   <si>
-    <t>acao_servico</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
@@ -1771,9 +1768,6 @@
     <t>BIGINT(20)</t>
   </si>
   <si>
-    <t>✔</t>
-  </si>
-  <si>
     <t>id_servico</t>
   </si>
   <si>
@@ -1792,18 +1786,12 @@
     <t>id_atendimento</t>
   </si>
   <si>
-    <t>acao_servico_has_marcacao</t>
-  </si>
-  <si>
     <t>id_acao_servico</t>
   </si>
   <si>
     <t>id_marcacao</t>
   </si>
   <si>
-    <t>acao_servico_has_material</t>
-  </si>
-  <si>
     <t>acao_servico_id</t>
   </si>
   <si>
@@ -1816,9 +1804,6 @@
     <t>DECIMAL(10,3)</t>
   </si>
   <si>
-    <t>agendamento</t>
-  </si>
-  <si>
     <t>id_odontologo</t>
   </si>
   <si>
@@ -1834,24 +1819,15 @@
     <t>TINYINT(4)</t>
   </si>
   <si>
-    <t>Poderá ser: 0 - SOLICITADO 1 - APROVADO 3 - COMPARECIDO 4 - NÃO COMPARECIDO</t>
-  </si>
-  <si>
     <t>ativo</t>
   </si>
   <si>
-    <t>anamnese</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
     <t>id_usuario</t>
   </si>
   <si>
-    <t>atendimento</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -1861,9 +1837,6 @@
     <t>valor_total</t>
   </si>
   <si>
-    <t>controle_estoque</t>
-  </si>
-  <si>
     <t>id_material</t>
   </si>
   <si>
@@ -1879,33 +1852,21 @@
     <t>qtd_operacao</t>
   </si>
   <si>
-    <t>dente</t>
-  </si>
-  <si>
     <t>descricao</t>
   </si>
   <si>
     <t>img</t>
   </si>
   <si>
-    <t>dente_has_odontograma</t>
-  </si>
-  <si>
     <t>id_dente</t>
   </si>
   <si>
     <t>id_odontograma</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>dente_id</t>
   </si>
   <si>
-    <t>marcacao</t>
-  </si>
-  <si>
     <t>posX</t>
   </si>
   <si>
@@ -1918,18 +1879,12 @@
     <t>cor</t>
   </si>
   <si>
-    <t>marcacao_has_face</t>
-  </si>
-  <si>
     <t>marcacao_id</t>
   </si>
   <si>
     <t>face_id</t>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -1954,18 +1909,9 @@
     <t>valor</t>
   </si>
   <si>
-    <t>odontograma</t>
-  </si>
-  <si>
-    <t>pergunta</t>
-  </si>
-  <si>
     <t>tipo_resposta</t>
   </si>
   <si>
-    <t>pergunta_has_anamnese</t>
-  </si>
-  <si>
     <t>pergunta_id</t>
   </si>
   <si>
@@ -1990,9 +1936,6 @@
     <t>Tipo será um enum, portanto não haverá tabela de tipos</t>
   </si>
   <si>
-    <t>usuario</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -2047,18 +1990,12 @@
     <t>ID do usuário relacionado à anamnese</t>
   </si>
   <si>
-    <t>Indica o estado do atendimento. 0 - SOLICITADO 1 - APROVADO 2 - COMPARECIDO 3 - NÃO COMPARECIDO</t>
-  </si>
-  <si>
     <t>ID do agendamento que gerou o atendimento.</t>
   </si>
   <si>
     <t>Valor total do atendimento. Calculo será realizado ao finalizar um atendimento</t>
   </si>
   <si>
-    <t>configuracao</t>
-  </si>
-  <si>
     <t>razao_social</t>
   </si>
   <si>
@@ -2140,9 +2077,6 @@
     <t>Quantidade atual do material no momento da operação.</t>
   </si>
   <si>
-    <t>Tipo de operação. Pode ser: 0 - REMOÇÃO. 1 - INSERÇÃO.</t>
-  </si>
-  <si>
     <t>Quantidade operada.</t>
   </si>
   <si>
@@ -2161,9 +2095,6 @@
     <t>Imagem que representará o dente.</t>
   </si>
   <si>
-    <t>Estado do dente perante o odontograma. Será um enum, portanto não haverá tabela de estados. Pode ser: 0 - AUSENTE. 1 - NORMAL. 2 - IMPLANTE. 3 - IMPLANTE PARCIAL.</t>
-  </si>
-  <si>
     <t>Dente ao qual a face pertence.</t>
   </si>
   <si>
@@ -2188,9 +2119,6 @@
     <t>ID do Odontograma qual foi realizada a marcação.</t>
   </si>
   <si>
-    <t>Medida será um enum que indicará qual a unidade de medida do material. Ex: Unidade, Mg, Kg. Portanto não haverá tabela de medidas</t>
-  </si>
-  <si>
     <t>O motivo da multa.</t>
   </si>
   <si>
@@ -2227,9 +2155,6 @@
     <t>Complemento da resposta dada a pergunta.</t>
   </si>
   <si>
-    <t>permissao</t>
-  </si>
-  <si>
     <t>Título da permissão.</t>
   </si>
   <si>
@@ -2239,9 +2164,6 @@
     <t>Descrição detalhada do serviço.</t>
   </si>
   <si>
-    <t>Estado atual do serviço. Pode ser: 0 - INATIVO. 1 - ATIVO.</t>
-  </si>
-  <si>
     <t>Nome do usuário</t>
   </si>
   <si>
@@ -2254,12 +2176,6 @@
     <t>CPF do usuário</t>
   </si>
   <si>
-    <t>Tipo de usuário será um enum, portanto não haverá tabela de medidas. Os tipos de usuário serão: 0 - ADMINISTRADOR (Administrador do sistema). 1 - ADMCLINICA (Administrador da clínica). 2 - ODONTOLOGO. 3 - SECRETARIO. 4 - PACIENTE.</t>
-  </si>
-  <si>
-    <t>Status do usuário. Poderá ser: 0 - INATIVO. 1 - ATIVO.</t>
-  </si>
-  <si>
     <t>Senha do usuário</t>
   </si>
   <si>
@@ -2275,26 +2191,620 @@
     <t>Número de telefone do usuário com WhatsApp.</t>
   </si>
   <si>
-    <t>usuario_has_permissao</t>
-  </si>
-  <si>
     <t>usuario_id</t>
   </si>
   <si>
     <t>permissao_id</t>
   </si>
   <si>
-    <t>Coluna</t>
-  </si>
-  <si>
-    <t>Tipo</t>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Tipo/Tamanho</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Indica o estado do atendimento. 
+0 - SOLICITADO 
+1 - APROVADO 
+2 - COMPARECIDO 
+3 - NÃO COMPARECIDO</t>
+  </si>
+  <si>
+    <t>Poderá ser: 
+0 - SOLICITADO 
+1 - APROVADO 
+3 - COMPARECIDO 
+4 - NÃO COMPARECIDO</t>
+  </si>
+  <si>
+    <t>Tipo de operação. 
+Poderá ser: 
+0 - REMOÇÃO. 
+1 - INSERÇÃO.</t>
+  </si>
+  <si>
+    <t>Estado do dente perante o odontograma. Será um enum, portanto não haverá tabela de estados. 
+Poderá ser: 
+0 - AUSENTE. 
+1 - NORMAL. 
+2 - IMPLANTE. 
+3 - IMPLANTE PARCIAL.</t>
+  </si>
+  <si>
+    <t>Medida será um enum que indicará qual a unidade de medida do material. 
+Ex: Unidade, Mg, Kg. 
+Portanto não haverá tabela de medidas</t>
+  </si>
+  <si>
+    <t>Estado atual do serviço. 
+Poderá ser: 
+0 - INATIVO. 
+1 - ATIVO.</t>
+  </si>
+  <si>
+    <t>Tipo de usuário será um enum, portanto não haverá tabela de medidas. 
+Os tipos de usuário serão: 
+0 - ADMINISTRADOR (Administrador do sistema). 
+1 - ADMCLINICA (Administrador da clínica). 
+2 - ODONTOLOGO. 
+3 - SECRETARIO. 
+4 - PACIENTE.</t>
+  </si>
+  <si>
+    <t>Status do usuário. 
+Poderá ser: 
+0 - INATIVO. 
+1 - ATIVO.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">acao_servico </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações referentes a ação de serviço</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">acao_servico_has_material </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Relacionamento entre tabelas acao_servico e material</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">acao_servico_has_marcacao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Relacionamento entre tabelas acao_servico e marcacao</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>agendamento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Informações referentes a agendamento, incluindo odontólogo e paciente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">anamnese </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações pessoais de cada paciente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">atendimento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações de cada atendimento realizado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">configuracao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações relativas a clínica/consultório</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">controle_estoque </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações referentes a controle de estoque, a cada operação realizada por um usuário será inserida uma nova linha com as informações pertinentes, ao utilizar as informações será selecionada somente a linha mais recente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações pertinentes à dentes, para utilização será realizada carga de dados no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dente_has_odontograma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Relacionamento entre um dente e um odontograma</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">face </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações referentes a faces dos dentes, para utilização será realizada carga de dados no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">marcacao </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações referentes a marcações realizadas no sistema, cada marcação deverá estar relacionada a um odontograma</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>marcacao_has_face</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Relacionamento entre tabelas marcacao e face</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">material </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações referentes a materiais cadastrados no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>multa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Informações referente a multas aplicadas a determinado agendamento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">odontograma </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Informações referentes a um odontograma, cada odontograma será obrigatoriamente relacionado a um paciente</t>
+    </r>
+  </si>
+  <si>
+    <t>Tipo do odontograma. 
+Poderá ser: 
+0 - Adulto.
+1 - Infantil.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pergunta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Informações referentes a perguntas de anamnese cadastradas no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pergunta_has_anamnese </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Relacionamento entre tabelas pergunta e anamnese, cada dado inserido refere-se a uma pergunta já respondida por um paciente, cada pergunta poderá conter apenas um tipo de resposta, sendo ela boolean ou texto, o preenchimento do campo resposta_complemento dependerá das opções escolhidas no cadastro da pergunta.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>permissao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Informações referentes a permissões do sistema, para utilização será realizada carga de dados no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>servico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Informações referentes a serviços que poderão ser realizados na clínica</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Informações referentes a usuário cadastrados no sistema</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tabela: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>usuario_has_permissao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - Relacionamento entre tabelas usuário e permissao</t>
+    </r>
+  </si>
+  <si>
+    <t>novoMaterial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2341,42 +2851,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6A6A6A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF4C4C4C"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF6A6A6A"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -2385,7 +2859,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2424,18 +2898,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2482,84 +2950,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2628,6 +3024,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2643,50 +3054,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3129,11 +3498,11 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="5" t="s">
         <v>52</v>
       </c>
@@ -3143,10 +3512,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="5" t="s">
         <v>63</v>
       </c>
@@ -3154,10 +3523,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="8" t="s">
         <v>63</v>
       </c>
@@ -3165,10 +3534,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
@@ -3176,10 +3545,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="5" t="s">
         <v>53</v>
       </c>
@@ -3209,11 +3578,11 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
@@ -3223,10 +3592,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="6" t="s">
         <v>53</v>
       </c>
@@ -3267,10 +3636,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="6" t="s">
         <v>68</v>
       </c>
@@ -3299,11 +3668,11 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="5" t="s">
         <v>53</v>
       </c>
@@ -3313,10 +3682,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
@@ -3324,10 +3693,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="5" t="s">
         <v>57</v>
       </c>
@@ -3346,10 +3715,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="8" t="s">
         <v>64</v>
       </c>
@@ -3357,21 +3726,21 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="6" t="s">
         <v>54</v>
       </c>
@@ -3381,10 +3750,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="6" t="s">
         <v>64</v>
       </c>
@@ -3392,10 +3761,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="6">
         <v>15</v>
       </c>
@@ -3435,11 +3804,11 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="5" t="s">
         <v>54</v>
       </c>
@@ -3449,10 +3818,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="8" t="s">
         <v>57</v>
       </c>
@@ -3460,10 +3829,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
@@ -3471,10 +3840,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="5" t="s">
         <v>67</v>
       </c>
@@ -3593,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,10 +3976,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -3673,56 +4042,56 @@
       <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="35"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="35"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="35"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="35"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="33"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
@@ -3745,10 +4114,10 @@
       <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="33"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -3811,10 +4180,10 @@
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
@@ -3845,10 +4214,10 @@
       <c r="B35" s="22"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
@@ -3911,38 +4280,38 @@
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="B45" s="28"/>
+      <c r="B45" s="33"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="35"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="30"/>
+      <c r="B48" s="35"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="B50" s="28"/>
+      <c r="B50" s="33"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
@@ -3981,10 +4350,10 @@
       <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B56" s="28"/>
+      <c r="B56" s="33"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
@@ -3994,722 +4363,747 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>98</v>
+        <v>550</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>274</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B63" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="B63" s="28"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="B65" s="33"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B66" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
+    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B67" s="23" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B68" s="23" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="28"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
+      <c r="B70" s="33"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B71" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
+    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B72" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B72" s="28"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="B74" s="33"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B75" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B76" s="23" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B79" s="23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B80" s="23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B80" s="28"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
+      <c r="B82" s="33"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B83" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B84" s="23" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B85" s="23" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B88" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="28"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
+      <c r="B90" s="33"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="24" t="s">
+      <c r="B91" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B92" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B93" s="23" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B94" s="23" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="28" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="B94" s="28"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
+      <c r="B96" s="33"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="24" t="s">
+      <c r="B97" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B98" s="23" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B99" s="23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B100" s="23" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B101" s="23" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="B101" s="28"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+      <c r="B103" s="33"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="24" t="s">
+      <c r="B104" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B105" s="23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="B105" s="28"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="24" t="s">
+      <c r="B107" s="33"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="B108" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B109" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
+    <row r="110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B110" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B111" s="23" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B112" s="23" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="28" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="B112" s="28"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="29" t="s">
+      <c r="B114" s="33"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B113" s="29"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
+      <c r="B115" s="34"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B114" s="30"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
+      <c r="B116" s="35"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="30"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
+      <c r="B117" s="35"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="30"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
+      <c r="B118" s="35"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="30"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="B119" s="35"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="B119" s="28"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="24" t="s">
+      <c r="B121" s="33"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B122" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="23" t="s">
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B121" s="23" t="s">
+      <c r="B123" s="23" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="23" t="s">
+    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B124" s="23" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="22"/>
-      <c r="B123" s="22"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="B124" s="28"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>306</v>
-      </c>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B127" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B130" s="23" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="28" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="B130" s="28"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="24" t="s">
+      <c r="B132" s="33"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B133" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="23" t="s">
+    <row r="134" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B134" s="23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="22"/>
-      <c r="B133" s="22"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="28" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="B134" s="28"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B135" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>309</v>
-      </c>
+      <c r="B136" s="33"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B137" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B142" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B143" s="23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="28" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="B143" s="28"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="24" t="s">
+      <c r="B145" s="33"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B144" s="24" t="s">
+      <c r="B146" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="23" t="s">
+    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B147" s="23" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="22"/>
-      <c r="B146" s="22"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="28" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="B147" s="28"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="B149" s="33"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B148" s="24" t="s">
+      <c r="B150" s="24" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="B153" s="23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="22"/>
-      <c r="B152" s="22"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="28" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="22"/>
+      <c r="B154" s="22"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="B153" s="28"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
+      <c r="B155" s="33"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="B156" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="23" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B157" s="23" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="23" t="s">
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B158" s="23" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="B157" s="23" t="s">
+      <c r="B159" s="23" t="s">
         <v>321</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A149:B149"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A119:B119"/>
     <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A103:B103"/>
     <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:B22"/>
@@ -4720,15 +5114,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4830,3046 +5215,2819 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="16" style="28" customWidth="1"/>
+    <col min="3" max="7" width="4.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="D2" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+    </row>
+    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+    </row>
+    <row r="80" spans="1:8" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H84" s="27"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+    </row>
+    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" s="27"/>
+      <c r="D86" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+    </row>
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H92" s="27"/>
+    </row>
+    <row r="93" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96" s="27"/>
+      <c r="D96" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+    </row>
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G99" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H99" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H100" s="27"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H105" s="27"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+    </row>
+    <row r="109" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="B111" s="36"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+    </row>
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H112" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H113" s="27"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C115" s="27"/>
+      <c r="D115" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="B118" s="36"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+    </row>
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H120" s="27"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C121" s="27"/>
+      <c r="D121" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+    </row>
+    <row r="123" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A123" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+    </row>
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G126" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H126" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H127" s="27"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+    </row>
+    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D133" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E133" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F133" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="G133" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H133" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="B136" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="B137" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="B140" s="36"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+    </row>
+    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F141" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H141" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="B142" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F142" s="27"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="27"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G143" s="27"/>
+      <c r="H143" s="27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="B145" s="36"/>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+    </row>
+    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H146" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H147" s="27"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A151" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="B153" s="36"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36"/>
+      <c r="F153" s="36"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+    </row>
+    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G154" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H154" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B155" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="C155" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="H155" s="27"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="B157" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="33" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>380</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F157" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F159" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G159" s="27"/>
+      <c r="H159" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="B166" s="36"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+    </row>
+    <row r="167" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B167" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D167" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="E167" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="F167" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="G167" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H11" s="31" t="s">
+      <c r="H167" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="B168" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="33" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="C168" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E168" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B169" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="33" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
-        <v>396</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="33" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="33" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="33" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
-        <v>468</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="33" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="33" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="33"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="33"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="33"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="33" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="33" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="33" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="33"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="33"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="33"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="33" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="33"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="40"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G61" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H61" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H62" s="33"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="33" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="33" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="33" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="33" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="33" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="33" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="33" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="40"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H72" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H73" s="33"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="33"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="40"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G78" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H78" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="33"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="33"/>
-    </row>
-    <row r="81" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="33" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="40"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G84" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H84" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B85" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H85" s="33"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="33"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="33" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="33" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
-        <v>417</v>
-      </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="38"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="40"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F92" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G92" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H92" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H93" s="33"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="33" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="33" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="33" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C97" s="34"/>
-      <c r="D97" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="33" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="40"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E100" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F100" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G100" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H100" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C101" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D101" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E101" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H101" s="33"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D102" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="33"/>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="38"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="40"/>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D105" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E105" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F105" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G105" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H105" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H106" s="33"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="33"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="33"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="33"/>
-    </row>
-    <row r="110" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C110" s="34"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="33" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="B111" s="42"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="38"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="40"/>
-    </row>
-    <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F113" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G113" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H113" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H114" s="33"/>
-    </row>
-    <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="33" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C116" s="34"/>
-      <c r="D116" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E116" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="33" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="33" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="B118" s="42"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-    </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="38"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="40"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C120" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D120" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E120" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F120" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G120" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H120" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B121" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H121" s="33"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E122" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="33"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B123" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C123" s="34"/>
-      <c r="D123" s="34"/>
-      <c r="E123" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="33"/>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="B124" s="42"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="38"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="40"/>
-    </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B126" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E126" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F126" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G126" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H126" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D127" s="34"/>
-      <c r="E127" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F127" s="34"/>
-      <c r="G127" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H127" s="33"/>
-    </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="33" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="33" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="33" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="B131" s="42"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="42"/>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-    </row>
-    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="38"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="40"/>
-    </row>
-    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C133" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D133" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F133" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G133" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H133" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="B134" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D134" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E134" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="33" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E135" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F135" s="34"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="33" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="C136" s="34"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="33" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="C137" s="34"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="33" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="B138" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="33" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="B139" s="42"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="42"/>
-      <c r="E139" s="42"/>
-      <c r="F139" s="42"/>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-    </row>
-    <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="38"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="40"/>
-    </row>
-    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B141" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C141" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D141" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E141" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F141" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G141" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H141" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B142" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="33"/>
-    </row>
-    <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B143" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F143" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="G143" s="34"/>
-      <c r="H143" s="33" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B144" s="42"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="42"/>
-      <c r="E144" s="42"/>
-      <c r="F144" s="42"/>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="38"/>
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="40"/>
-    </row>
-    <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B146" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C146" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D146" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F146" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G146" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H146" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B147" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F147" s="34"/>
-      <c r="G147" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H147" s="33"/>
-    </row>
-    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="B148" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F148" s="34"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="33" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B149" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="33" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="B150" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F150" s="34"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="33" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F151" s="34"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="33" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="41" t="s">
-        <v>446</v>
-      </c>
-      <c r="B152" s="42"/>
-      <c r="C152" s="42"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="42"/>
-      <c r="F152" s="42"/>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-    </row>
-    <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="38"/>
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
-      <c r="F153" s="39"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="40"/>
-    </row>
-    <row r="154" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B154" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D154" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E154" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F154" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G154" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H154" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="B155" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C155" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="H155" s="33"/>
-    </row>
-    <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="B156" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="C156" s="34"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
-      <c r="H156" s="33" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="C157" s="34"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F157" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="G157" s="34"/>
-      <c r="H157" s="33" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="32" t="s">
-        <v>448</v>
-      </c>
-      <c r="B158" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="C158" s="34"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34"/>
-      <c r="H158" s="33" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="B159" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F159" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="G159" s="34"/>
-      <c r="H159" s="33" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="B160" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C160" s="34"/>
-      <c r="D160" s="34"/>
-      <c r="E160" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F160" s="34"/>
-      <c r="G160" s="34"/>
-      <c r="H160" s="33" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C161" s="34"/>
-      <c r="D161" s="34"/>
-      <c r="E161" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="33" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="B162" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F162" s="34"/>
-      <c r="G162" s="34"/>
-      <c r="H162" s="33" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="B163" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
-      <c r="E163" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F163" s="34"/>
-      <c r="G163" s="34"/>
-      <c r="H163" s="33" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="B164" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="C164" s="34"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="34"/>
-      <c r="F164" s="34"/>
-      <c r="G164" s="34"/>
-      <c r="H164" s="33" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="41" t="s">
-        <v>541</v>
-      </c>
-      <c r="B165" s="42"/>
-      <c r="C165" s="42"/>
-      <c r="D165" s="42"/>
-      <c r="E165" s="42"/>
-      <c r="F165" s="42"/>
-      <c r="G165" s="42"/>
-      <c r="H165" s="42"/>
-    </row>
-    <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="38"/>
-      <c r="B166" s="39"/>
-      <c r="C166" s="39"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="40"/>
-    </row>
-    <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B167" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="C167" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D167" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="E167" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F167" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="G167" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="H167" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="B168" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C168" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D168" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E168" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="F168" s="34"/>
-      <c r="G168" s="34"/>
-      <c r="H168" s="33"/>
-    </row>
-    <row r="169" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="44" t="s">
-        <v>543</v>
-      </c>
-      <c r="B169" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="C169" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="D169" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="E169" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="F169" s="46"/>
-      <c r="G169" s="46"/>
-      <c r="H169" s="43"/>
+      <c r="C169" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E169" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="22">
     <mergeCell ref="A166:H166"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A132:H132"/>
+    <mergeCell ref="A153:H153"/>
     <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A144:H144"/>
     <mergeCell ref="A145:H145"/>
-    <mergeCell ref="A152:H152"/>
-    <mergeCell ref="A153:H153"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="A119:H119"/>
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="A125:H125"/>
-    <mergeCell ref="A131:H131"/>
-    <mergeCell ref="A132:H132"/>
-    <mergeCell ref="A139:H139"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="A103:H103"/>
-    <mergeCell ref="A104:H104"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A112:H112"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A91:H91"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="A103:H103"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D5" location="id_servico" display="id_servico"/>
-    <hyperlink ref="D8" location="id_atendimento" display="id_atendimento"/>
-    <hyperlink ref="D12" location="id_acao_servico" display="id_acao_servico"/>
-    <hyperlink ref="D13" location="id_marcacao" display="id_marcacao"/>
-    <hyperlink ref="D17" location="acao_servico" display="acao_servico"/>
-    <hyperlink ref="D18" location="material" display="material"/>
-    <hyperlink ref="D24" location="id_odontologo" display="id_odontologo"/>
-    <hyperlink ref="D25" location="id_paciente" display="id_paciente"/>
-    <hyperlink ref="D33" location="id_usuario" display="id_usuario"/>
-    <hyperlink ref="D39" location="id_agendamento" display="id_agendamento"/>
-    <hyperlink ref="D63" location="id_material" display="id_material"/>
-    <hyperlink ref="D79" location="id_dente" display="id_dente"/>
-    <hyperlink ref="D80" location="id_odontograma" display="id_odontograma"/>
-    <hyperlink ref="D87" location="dente" display="dente"/>
-    <hyperlink ref="D97" location="id_odontograma" display="id_odontograma"/>
-    <hyperlink ref="D101" location="marcacao" display="marcacao"/>
-    <hyperlink ref="D102" location="face" display="face"/>
-    <hyperlink ref="D116" location="agendamento" display="agendamento"/>
-    <hyperlink ref="D122" location="id_paciente" display="id_paciente"/>
-    <hyperlink ref="D134" location="pergunta" display="pergunta"/>
-    <hyperlink ref="D135" location="anamnese" display="anamnese"/>
-    <hyperlink ref="D168" location="usuario" display="usuario"/>
-    <hyperlink ref="D169" location="permissao" display="permissao"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
